--- a/data/cleaned_gdp.xlsx
+++ b/data/cleaned_gdp.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tourad BABA\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tourad BABA\PycharmProjects\DashApp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63EE3F29-0614-4D9B-8B8B-EF47AB9D3FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9544AE-2B04-4911-9879-F5FEC3872989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1049,8 +1049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1473"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1365" workbookViewId="0">
-      <selection activeCell="E1372" sqref="E1372"/>
+    <sheetView tabSelected="1" topLeftCell="A1325" workbookViewId="0">
+      <selection activeCell="E1346" sqref="E1346"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30938,13 +30938,13 @@
         <v>1995</v>
       </c>
       <c r="C1341">
-        <v>233253</v>
+        <v>2000</v>
       </c>
       <c r="D1341">
-        <v>7369</v>
+        <v>587</v>
       </c>
       <c r="E1341">
-        <v>7.2</v>
+        <v>-7.2</v>
       </c>
       <c r="F1341">
         <v>40</v>
@@ -30961,13 +30961,13 @@
         <v>2005</v>
       </c>
       <c r="C1342">
-        <v>506315</v>
+        <v>8000</v>
       </c>
       <c r="D1342">
-        <v>10615</v>
+        <v>1658</v>
       </c>
       <c r="E1342">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F1342">
         <v>40</v>
@@ -30984,13 +30984,13 @@
         <v>2010</v>
       </c>
       <c r="C1343">
-        <v>776967</v>
+        <v>22580</v>
       </c>
       <c r="D1343">
-        <v>10852</v>
+        <v>4286</v>
       </c>
       <c r="E1343">
-        <v>8.4</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="F1343">
         <v>40</v>
@@ -31007,13 +31007,13 @@
         <v>2015</v>
       </c>
       <c r="C1344">
-        <v>864314</v>
+        <v>35800</v>
       </c>
       <c r="D1344">
-        <v>9103</v>
+        <v>6208</v>
       </c>
       <c r="E1344">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="F1344">
         <v>40</v>
@@ -31030,13 +31030,13 @@
         <v>2019</v>
       </c>
       <c r="C1345">
-        <v>759935</v>
+        <v>45230</v>
       </c>
       <c r="D1345">
-        <v>8561</v>
+        <v>7344</v>
       </c>
       <c r="E1345">
-        <v>0.8</v>
+        <v>6.3</v>
       </c>
       <c r="F1345">
         <v>40</v>
@@ -31053,13 +31053,13 @@
         <v>2020</v>
       </c>
       <c r="C1346">
-        <v>720289</v>
+        <v>45820</v>
       </c>
       <c r="D1346">
-        <v>9661</v>
+        <v>7330</v>
       </c>
       <c r="E1346">
-        <v>1.9</v>
+        <v>-3.4</v>
       </c>
       <c r="F1346">
         <v>40</v>
@@ -31076,13 +31076,13 @@
         <v>2021</v>
       </c>
       <c r="C1347">
-        <v>819034</v>
+        <v>50000</v>
       </c>
       <c r="D1347">
-        <v>518</v>
+        <v>7885</v>
       </c>
       <c r="E1347">
-        <v>11.4</v>
+        <v>4.5</v>
       </c>
       <c r="F1347">
         <v>40</v>

--- a/data/cleaned_gdp.xlsx
+++ b/data/cleaned_gdp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tourad BABA\PycharmProjects\DashApp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9544AE-2B04-4911-9879-F5FEC3872989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E728479-B840-427A-9F69-9D86CB9CCAA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1049,8 +1049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1473"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1325" workbookViewId="0">
-      <selection activeCell="E1346" sqref="E1346"/>
+    <sheetView tabSelected="1" topLeftCell="A1362" workbookViewId="0">
+      <selection activeCell="D1382" sqref="D1382"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31884,7 +31884,7 @@
         <v>200086</v>
       </c>
       <c r="D1382">
-        <v>27364</v>
+        <v>4899</v>
       </c>
       <c r="E1382">
         <v>3.4</v>
@@ -32206,7 +32206,7 @@
         <v>3131378</v>
       </c>
       <c r="D1396">
-        <v>242</v>
+        <v>46899</v>
       </c>
       <c r="E1396">
         <v>7.5</v>
@@ -32331,7 +32331,7 @@
         <v>70297</v>
       </c>
       <c r="D1403">
-        <v>28758</v>
+        <v>1146</v>
       </c>
       <c r="E1403">
         <v>4.9000000000000004</v>

--- a/data/cleaned_gdp.xlsx
+++ b/data/cleaned_gdp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tourad BABA\PycharmProjects\DashApp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E728479-B840-427A-9F69-9D86CB9CCAA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1464BB53-88E4-45E5-A10A-E39FD4FC6DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1049,8 +1049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1473"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1362" workbookViewId="0">
-      <selection activeCell="D1382" sqref="D1382"/>
+    <sheetView tabSelected="1" topLeftCell="A1438" workbookViewId="0">
+      <selection activeCell="D1473" sqref="D1473"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8652,7 +8652,7 @@
         <v>11105</v>
       </c>
       <c r="D338">
-        <v>777</v>
+        <v>3830</v>
       </c>
       <c r="E338">
         <v>7.1</v>
@@ -8675,7 +8675,7 @@
         <v>17085</v>
       </c>
       <c r="D339">
-        <v>901</v>
+        <v>10271</v>
       </c>
       <c r="E339">
         <v>1.7</v>
@@ -8698,7 +8698,7 @@
         <v>26264</v>
       </c>
       <c r="D340">
-        <v>1244</v>
+        <v>13643</v>
       </c>
       <c r="E340">
         <v>7.7</v>
@@ -8721,7 +8721,7 @@
         <v>45780</v>
       </c>
       <c r="D341">
-        <v>1940</v>
+        <v>14940</v>
       </c>
       <c r="E341">
         <v>14.9</v>
@@ -8744,7 +8744,7 @@
         <v>58540</v>
       </c>
       <c r="D342">
-        <v>2239</v>
+        <v>15949</v>
       </c>
       <c r="E342">
         <v>6.2</v>
@@ -8767,7 +8767,7 @@
         <v>61349</v>
       </c>
       <c r="D343">
-        <v>2288</v>
+        <v>14471</v>
       </c>
       <c r="E343">
         <v>2</v>
@@ -8790,7 +8790,7 @@
         <v>69765</v>
       </c>
       <c r="D344">
-        <v>2539</v>
+        <v>15711</v>
       </c>
       <c r="E344">
         <v>7</v>
@@ -8971,10 +8971,10 @@
         <v>1995</v>
       </c>
       <c r="C352">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="D352">
-        <v>2785</v>
+        <v>11875</v>
       </c>
       <c r="E352">
         <v>2.5</v>
@@ -8994,10 +8994,10 @@
         <v>2005</v>
       </c>
       <c r="C353">
-        <v>2345</v>
+        <v>13700</v>
       </c>
       <c r="D353">
-        <v>3792</v>
+        <v>22900</v>
       </c>
       <c r="E353">
         <v>11.2</v>
@@ -9017,10 +9017,10 @@
         <v>2010</v>
       </c>
       <c r="C354">
-        <v>2951</v>
+        <v>17100</v>
       </c>
       <c r="D354">
-        <v>5698</v>
+        <v>26200</v>
       </c>
       <c r="E354">
         <v>2.4</v>
@@ -9040,10 +9040,10 @@
         <v>2015</v>
       </c>
       <c r="C355">
-        <v>3043</v>
+        <v>17900</v>
       </c>
       <c r="D355">
-        <v>7690</v>
+        <v>24800</v>
       </c>
       <c r="E355">
         <v>4.4000000000000004</v>
@@ -9063,10 +9063,10 @@
         <v>2019</v>
       </c>
       <c r="C356">
-        <v>2995</v>
+        <v>24100</v>
       </c>
       <c r="D356">
-        <v>9139</v>
+        <v>28600</v>
       </c>
       <c r="E356">
         <v>-0.2</v>
@@ -9086,10 +9086,10 @@
         <v>2020</v>
       </c>
       <c r="C357">
-        <v>2496</v>
+        <v>22400</v>
       </c>
       <c r="D357">
-        <v>9500</v>
+        <v>26100</v>
       </c>
       <c r="E357">
         <v>-10.9</v>
@@ -9109,10 +9109,10 @@
         <v>2021</v>
       </c>
       <c r="C358">
-        <v>2700</v>
+        <v>24100</v>
       </c>
       <c r="D358">
-        <v>11255</v>
+        <v>27800</v>
       </c>
       <c r="E358">
         <v>1.3</v>
@@ -28056,7 +28056,7 @@
         <v>61749</v>
       </c>
       <c r="D1208">
-        <v>1004</v>
+        <v>29331</v>
       </c>
       <c r="E1208">
         <v>8.1999999999999993</v>
@@ -28378,7 +28378,7 @@
         <v>7628</v>
       </c>
       <c r="D1222">
-        <v>3904</v>
+        <v>576</v>
       </c>
       <c r="E1222">
         <v>2.9</v>
@@ -28785,7 +28785,7 @@
         <v>1427381</v>
       </c>
       <c r="D1241">
-        <v>841</v>
+        <v>31000</v>
       </c>
       <c r="E1241">
         <v>5.5</v>
@@ -29714,7 +29714,7 @@
         <v>812867</v>
       </c>
       <c r="D1284">
-        <v>946</v>
+        <v>93441</v>
       </c>
       <c r="E1284">
         <v>3.7</v>
@@ -33849,6 +33849,9 @@
       </c>
       <c r="C1473">
         <v>24118</v>
+      </c>
+      <c r="D1473">
+        <v>1773</v>
       </c>
       <c r="E1473">
         <v>6.3</v>
